--- a/biology/Zoologie/Clyte_bélier/Clyte_bélier.xlsx
+++ b/biology/Zoologie/Clyte_bélier/Clyte_bélier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clyte_b%C3%A9lier</t>
+          <t>Clyte_bélier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clytus arietis
 Le clyte bélier (Clytus arietis) est une espèce de coléoptères de la famille des cérambycidés, sous-famille des Cerambycinae, tribu des Clytini et du genre Clytus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clyte_b%C3%A9lier</t>
+          <t>Clyte_bélier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Morphotype des cérambycidés. Il atteint 9-18 mm. Couleur noire rayée de jaune. Pattes brun-orange. Tête, pronotum et élytres ponctués. Forte pubescence sauf sur les deux tiers inférieurs des élytres. Ce clyte présente un étonnant mimétisme batésien par ses couleurs et son comportement qui évoquent la guêpe commune, surtout lorsqu'il marche rapidement au soleil en agitant les antennes.
 			Profil : l'abdomen est également rayé
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clyte_b%C3%A9lier</t>
+          <t>Clyte_bélier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, on le trouve de mai à août, sur les fleurs, les haies, près des arbres, sur les bois coupés.
 La larve vit deux ans dans le bois mort, d'abord sous l'écorce, puis elle fore une galerie dans laquelle elle réalise la nymphose et hiverne.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clyte_b%C3%A9lier</t>
+          <t>Clyte_bélier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Clytus arietis a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Leptura arietis[1].
-Synonymie
-Leptura arietis Linné, 1758 Protonyme
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Clytus arietis a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Leptura arietis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clyte_bélier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clyte_b%C3%A9lier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Leptura arietis Linné, 1758 Protonyme
 Cerambyx dasypus Voet, 1778
 Cerambyx quadrifasciatus Degeer, 1775
 Callidium arietis  Herbst, 1784
@@ -592,9 +645,43 @@
 Sphegesthes arietis  Chevrolat, 1863
 Clytus arietis m. cloueti Théry, 1892
 Clytus arietis ab. bourdilloni Aurivillius, 1912
-Clytus arietis ab. cloueti Aurivillius, 1912
-Liste des sous-espèces et variétés
-Selon BioLib                    (30 juin 2018)[2] :
+Clytus arietis ab. cloueti Aurivillius, 1912</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clyte_bélier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clyte_b%C3%A9lier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (30 juin 2018) :
 sous-espèce Clytus arietis arietis (Linnaeus, 1758)
 variété Clytus arietis arietis var. bourdilloni Mulsant, 1839
 variété Clytus arietis arietis var. carpelani Heyrovsky
